--- a/sortlist.xlsx
+++ b/sortlist.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="648">
   <si>
     <t>title</t>
   </si>
@@ -1882,6 +1882,9 @@
     <t>梅州一套</t>
   </si>
   <si>
+    <t>梅州综合</t>
+  </si>
+  <si>
     <t>梅州二套公共频道</t>
   </si>
   <si>
@@ -1894,67 +1897,67 @@
     <t>客家生活</t>
   </si>
   <si>
-    <t>梅州综合</t>
-  </si>
-  <si>
     <t>梅州公共</t>
   </si>
   <si>
     <t>哈哈炫动</t>
   </si>
   <si>
+    <t>4.少儿频道</t>
+  </si>
+  <si>
+    <t>哈哈炫动.576</t>
+  </si>
+  <si>
+    <t>炫動卡通</t>
+  </si>
+  <si>
+    <t>黑莓动画</t>
+  </si>
+  <si>
+    <t>NewTv_黑莓动画「IPV6」</t>
+  </si>
+  <si>
+    <t>黑莓動畫[ipv6]</t>
+  </si>
+  <si>
+    <t>嘉佳卡通</t>
+  </si>
+  <si>
+    <t>嘉佳卡通.576</t>
+  </si>
+  <si>
+    <t>嘉佳卡通.720</t>
+  </si>
+  <si>
+    <t>金鹰卡通.576</t>
+  </si>
+  <si>
+    <t>金鹰卡通</t>
+  </si>
+  <si>
+    <t>卡酷少儿.576</t>
+  </si>
+  <si>
+    <t>卡酷少儿</t>
+  </si>
+  <si>
+    <t>BRTV卡酷少儿[高清]</t>
+  </si>
+  <si>
+    <t>宝宝动画</t>
+  </si>
+  <si>
+    <t>动漫秀场</t>
+  </si>
+  <si>
+    <t>金鷹卡通[ipv6]</t>
+  </si>
+  <si>
+    <t>优漫卡通</t>
+  </si>
+  <si>
     <t>5.少儿频道</t>
-  </si>
-  <si>
-    <t>哈哈炫动.576</t>
-  </si>
-  <si>
-    <t>炫動卡通</t>
-  </si>
-  <si>
-    <t>黑莓动画</t>
-  </si>
-  <si>
-    <t>NewTv_黑莓动画「IPV6」</t>
-  </si>
-  <si>
-    <t>黑莓動畫[ipv6]</t>
-  </si>
-  <si>
-    <t>嘉佳卡通</t>
-  </si>
-  <si>
-    <t>嘉佳卡通.576</t>
-  </si>
-  <si>
-    <t>嘉佳卡通.720</t>
-  </si>
-  <si>
-    <t>金鹰卡通.576</t>
-  </si>
-  <si>
-    <t>金鹰卡通</t>
-  </si>
-  <si>
-    <t>卡酷少儿.576</t>
-  </si>
-  <si>
-    <t>卡酷少儿</t>
-  </si>
-  <si>
-    <t>BRTV卡酷少儿[高清]</t>
-  </si>
-  <si>
-    <t>宝宝动画</t>
-  </si>
-  <si>
-    <t>动漫秀场</t>
-  </si>
-  <si>
-    <t>金鷹卡通[ipv6]</t>
-  </si>
-  <si>
-    <t>优漫卡通</t>
   </si>
   <si>
     <t>優漫卡通[ipv6]</t>
@@ -1965,10 +1968,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1980,14 +1983,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2001,21 +2042,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2030,10 +2065,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2055,7 +2097,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2063,61 +2120,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2132,13 +2135,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2156,6 +2183,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2168,115 +2267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2294,19 +2285,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,15 +2347,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2361,11 +2355,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2385,6 +2377,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2396,15 +2399,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2423,6 +2417,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2431,10 +2434,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2443,142 +2446,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2904,10 +2904,10 @@
   <sheetPr/>
   <dimension ref="A1:E616"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F593" sqref="F593"/>
+      <selection pane="bottomLeft" activeCell="F597" sqref="F597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2949,7 +2949,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3000,7 +3000,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       <c r="D31" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
       <c r="D33" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       <c r="D35" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="D38" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       <c r="D39" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       <c r="D40" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       <c r="D41" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       <c r="D42" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       <c r="D43" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       <c r="D44" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
       <c r="D45" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="D46" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       <c r="D47" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       <c r="D48" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       <c r="D49" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       <c r="D50" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       <c r="D51" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       <c r="D52" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       <c r="D53" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       <c r="D54" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       <c r="D55" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       <c r="D56" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       <c r="D57" t="s">
         <v>59</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       <c r="D58" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       <c r="D59" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       <c r="D60" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
       <c r="D61" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       <c r="D62" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       <c r="D63" t="s">
         <v>71</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="D64" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       <c r="D65" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       <c r="D66" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       <c r="D67" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       <c r="D68" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       <c r="D69" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
       <c r="D70" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
       <c r="D71" t="s">
         <v>71</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       <c r="D72" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       <c r="D73" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       <c r="D74" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       <c r="D75" t="s">
         <v>71</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       <c r="D76" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -4224,7 +4224,7 @@
       <c r="D77" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       <c r="D78" t="s">
         <v>86</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       <c r="D79" t="s">
         <v>86</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
       <c r="D80" t="s">
         <v>86</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       <c r="D81" t="s">
         <v>86</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       <c r="D82" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       <c r="D83" t="s">
         <v>86</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
       <c r="D84" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       <c r="D85" t="s">
         <v>86</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       <c r="D86" t="s">
         <v>86</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       <c r="D87" t="s">
         <v>86</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       <c r="D88" t="s">
         <v>86</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       <c r="D89" t="s">
         <v>86</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       <c r="D90" t="s">
         <v>86</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       <c r="D91" t="s">
         <v>100</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       <c r="D92" t="s">
         <v>100</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       <c r="D93" t="s">
         <v>100</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       <c r="D94" t="s">
         <v>100</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
       <c r="D95" t="s">
         <v>100</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       <c r="D96" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       <c r="D97" t="s">
         <v>100</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       <c r="D98" t="s">
         <v>100</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4598,7 +4598,7 @@
       <c r="D99" t="s">
         <v>100</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4615,7 +4615,7 @@
       <c r="D100" t="s">
         <v>100</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
       <c r="D101" t="s">
         <v>100</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       <c r="D102" t="s">
         <v>100</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       <c r="D103" t="s">
         <v>100</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4683,7 +4683,7 @@
       <c r="D104" t="s">
         <v>113</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
       <c r="D105" t="s">
         <v>113</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       <c r="D106" t="s">
         <v>113</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       <c r="D107" t="s">
         <v>113</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       <c r="D108" t="s">
         <v>113</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       <c r="D109" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       <c r="D110" t="s">
         <v>113</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       <c r="D111" t="s">
         <v>113</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       <c r="D112" t="s">
         <v>113</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       <c r="D113" t="s">
         <v>113</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       <c r="D114" t="s">
         <v>113</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
       <c r="D115" t="s">
         <v>113</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       <c r="D116" t="s">
         <v>113</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       <c r="D117" t="s">
         <v>113</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       <c r="D118" t="s">
         <v>113</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
       <c r="D119" t="s">
         <v>113</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       <c r="D120" t="s">
         <v>113</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
       <c r="D121" t="s">
         <v>131</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       <c r="D122" t="s">
         <v>131</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       <c r="D123" t="s">
         <v>131</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       <c r="D124" t="s">
         <v>131</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
       <c r="D125" t="s">
         <v>131</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="D126" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       <c r="D127" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       <c r="D128" t="s">
         <v>131</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       <c r="D129" t="s">
         <v>131</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
       <c r="D130" t="s">
         <v>131</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
       <c r="D131" t="s">
         <v>131</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       <c r="D132" t="s">
         <v>131</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       <c r="D133" t="s">
         <v>131</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       <c r="D134" t="s">
         <v>145</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5210,7 +5210,7 @@
       <c r="D135" t="s">
         <v>145</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       <c r="D136" t="s">
         <v>145</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       <c r="D137" t="s">
         <v>145</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       <c r="D138" t="s">
         <v>145</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       <c r="D139" t="s">
         <v>145</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       <c r="D140" t="s">
         <v>145</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       <c r="D141" t="s">
         <v>145</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       <c r="D142" t="s">
         <v>145</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       <c r="D143" t="s">
         <v>145</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       <c r="D144" t="s">
         <v>145</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       <c r="D145" t="s">
         <v>145</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       <c r="D146" t="s">
         <v>158</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
       <c r="D147" t="s">
         <v>158</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       <c r="D148" t="s">
         <v>158</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       <c r="D149" t="s">
         <v>158</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       <c r="D150" t="s">
         <v>158</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       <c r="D151" t="s">
         <v>158</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       <c r="D152" t="s">
         <v>158</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       <c r="D153" t="s">
         <v>158</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       <c r="D154" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5550,7 +5550,7 @@
       <c r="D155" t="s">
         <v>158</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       <c r="D156" t="s">
         <v>158</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       <c r="D157" t="s">
         <v>158</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="D158" t="s">
         <v>171</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       <c r="D159" t="s">
         <v>171</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       <c r="D160" t="s">
         <v>171</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5652,7 +5652,7 @@
       <c r="D161" t="s">
         <v>171</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       <c r="D162" t="s">
         <v>171</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       <c r="D163" t="s">
         <v>171</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5703,7 +5703,7 @@
       <c r="D164" t="s">
         <v>171</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       <c r="D165" t="s">
         <v>171</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       <c r="D166" t="s">
         <v>171</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       <c r="D167" t="s">
         <v>171</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       <c r="D168" t="s">
         <v>171</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="D169" t="s">
         <v>171</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       <c r="D170" t="s">
         <v>184</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       <c r="D171" t="s">
         <v>184</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
       <c r="D172" t="s">
         <v>184</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       <c r="D173" t="s">
         <v>184</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       <c r="D174" t="s">
         <v>184</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
       <c r="D175" t="s">
         <v>184</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       <c r="D176" t="s">
         <v>184</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="E176" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5924,7 +5924,7 @@
       <c r="D177" t="s">
         <v>184</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       <c r="D178" t="s">
         <v>184</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
       <c r="D179" t="s">
         <v>184</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E179" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="D180" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
       <c r="D181" t="s">
         <v>184</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       <c r="D182" t="s">
         <v>197</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E182" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       <c r="D183" t="s">
         <v>197</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6043,7 +6043,7 @@
       <c r="D184" t="s">
         <v>197</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
       <c r="D185" t="s">
         <v>197</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E185" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       <c r="D186" t="s">
         <v>197</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6094,7 +6094,7 @@
       <c r="D187" t="s">
         <v>197</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       <c r="D188" t="s">
         <v>197</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
       <c r="D189" t="s">
         <v>197</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       <c r="D190" t="s">
         <v>197</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       <c r="D191" t="s">
         <v>197</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
       <c r="D192" t="s">
         <v>197</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       <c r="D193" t="s">
         <v>197</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       <c r="D194" t="s">
         <v>197</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       <c r="D195" t="s">
         <v>211</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       <c r="D196" t="s">
         <v>211</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       <c r="D197" t="s">
         <v>211</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       <c r="D198" t="s">
         <v>211</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       <c r="D199" t="s">
         <v>211</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       <c r="D200" t="s">
         <v>211</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E200" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       <c r="D201" t="s">
         <v>211</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       <c r="D202" t="s">
         <v>211</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
       <c r="D203" t="s">
         <v>211</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
       <c r="D204" t="s">
         <v>211</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
       <c r="D205" t="s">
         <v>211</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="D206" t="s">
         <v>211</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="1">
         <v>15</v>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       <c r="D207" t="s">
         <v>224</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       <c r="D208" t="s">
         <v>224</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       <c r="D209" t="s">
         <v>224</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       <c r="D210" t="s">
         <v>224</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="D211" t="s">
         <v>224</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E211" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6519,7 +6519,7 @@
       <c r="D212" t="s">
         <v>224</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
       <c r="D213" t="s">
         <v>224</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       <c r="D214" t="s">
         <v>224</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="D215" t="s">
         <v>224</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       <c r="D216" t="s">
         <v>224</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
       <c r="D217" t="s">
         <v>224</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E217" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       <c r="D218" t="s">
         <v>224</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E218" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6638,7 +6638,7 @@
       <c r="D219" t="s">
         <v>224</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E219" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
       <c r="D220" t="s">
         <v>224</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E220" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6672,7 +6672,7 @@
       <c r="D221" t="s">
         <v>224</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E221" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6689,7 +6689,7 @@
       <c r="D222" t="s">
         <v>224</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       <c r="D223" t="s">
         <v>224</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
       <c r="D224" t="s">
         <v>224</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6740,7 +6740,7 @@
       <c r="D225" t="s">
         <v>243</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E225" s="1" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       <c r="D226" t="s">
         <v>243</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E226" s="1" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="D227" t="s">
         <v>243</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E227" s="1" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       <c r="D228" t="s">
         <v>243</v>
       </c>
-      <c r="E228" s="2">
+      <c r="E228" s="1">
         <v>17</v>
       </c>
     </row>
@@ -6808,7 +6808,7 @@
       <c r="D229" t="s">
         <v>243</v>
       </c>
-      <c r="E229" s="2">
+      <c r="E229" s="1">
         <v>17</v>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
       <c r="D230" t="s">
         <v>243</v>
       </c>
-      <c r="E230" s="2">
+      <c r="E230" s="1">
         <v>17</v>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       <c r="D231" t="s">
         <v>243</v>
       </c>
-      <c r="E231" s="2">
+      <c r="E231" s="1">
         <v>17</v>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       <c r="D232" t="s">
         <v>243</v>
       </c>
-      <c r="E232" s="2">
+      <c r="E232" s="1">
         <v>17</v>
       </c>
     </row>
@@ -6876,7 +6876,7 @@
       <c r="D233" t="s">
         <v>243</v>
       </c>
-      <c r="E233" s="2">
+      <c r="E233" s="1">
         <v>17</v>
       </c>
     </row>
@@ -6893,7 +6893,7 @@
       <c r="D234" t="s">
         <v>243</v>
       </c>
-      <c r="E234" s="2">
+      <c r="E234" s="1">
         <v>17</v>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
       <c r="D235" t="s">
         <v>243</v>
       </c>
-      <c r="E235" s="2">
+      <c r="E235" s="1">
         <v>17</v>
       </c>
     </row>
@@ -6927,7 +6927,7 @@
       <c r="D236" t="s">
         <v>243</v>
       </c>
-      <c r="E236" s="2">
+      <c r="E236" s="1">
         <v>17</v>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       <c r="D237" t="s">
         <v>257</v>
       </c>
-      <c r="E237" s="2">
+      <c r="E237" s="1">
         <v>101</v>
       </c>
     </row>
@@ -12929,7 +12929,7 @@
         <v>614</v>
       </c>
       <c r="E589" s="1">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -12946,7 +12946,7 @@
         <v>616</v>
       </c>
       <c r="E590" s="1">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -12963,7 +12963,7 @@
         <v>617</v>
       </c>
       <c r="E591" s="1">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -12980,7 +12980,7 @@
         <v>620</v>
       </c>
       <c r="E592" s="1">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -12991,30 +12991,30 @@
         <v>599</v>
       </c>
       <c r="C593" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D593" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E593" s="1">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="594" spans="1:5">
       <c r="A594" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B594" t="s">
         <v>599</v>
       </c>
       <c r="C594" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D594" t="s">
         <v>620</v>
       </c>
       <c r="E594" s="1">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -13025,13 +13025,13 @@
         <v>599</v>
       </c>
       <c r="C595" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D595" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E595" s="1">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -13042,13 +13042,13 @@
         <v>599</v>
       </c>
       <c r="C596" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D596" t="s">
         <v>625</v>
       </c>
       <c r="E596" s="1">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -13065,7 +13065,7 @@
         <v>626</v>
       </c>
       <c r="E597" s="1">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -13362,7 +13362,7 @@
         <v>645</v>
       </c>
       <c r="B615" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="C615" t="s">
         <v>645</v>
@@ -13376,10 +13376,10 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" t="s">
+        <v>647</v>
+      </c>
+      <c r="B616" t="s">
         <v>646</v>
-      </c>
-      <c r="B616" t="s">
-        <v>628</v>
       </c>
       <c r="C616" t="s">
         <v>645</v>

--- a/sortlist.xlsx
+++ b/sortlist.xlsx
@@ -1864,7 +1864,7 @@
     <t>深圳电视台都市频道</t>
   </si>
   <si>
-    <t>都市频道</t>
+    <t>深圳都市频道</t>
   </si>
   <si>
     <t>深圳都市</t>
@@ -1879,6 +1879,9 @@
     <t>梅州一套综合频道</t>
   </si>
   <si>
+    <t>梅州-1</t>
+  </si>
+  <si>
     <t>梅州一套</t>
   </si>
   <si>
@@ -1888,13 +1891,10 @@
     <t>梅州二套公共频道</t>
   </si>
   <si>
+    <t>客家生活</t>
+  </si>
+  <si>
     <t>梅州二套</t>
-  </si>
-  <si>
-    <t>梅州-1</t>
-  </si>
-  <si>
-    <t>客家生活</t>
   </si>
   <si>
     <t>梅州公共</t>
@@ -2905,9 +2905,9 @@
   <dimension ref="A1:E616"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F597" sqref="F597"/>
+      <selection pane="bottomLeft" activeCell="A595" sqref="A595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2915,7 +2915,7 @@
     <col min="1" max="1" width="25.3583333333333" customWidth="1"/>
     <col min="2" max="2" width="11.2083333333333" customWidth="1"/>
     <col min="3" max="3" width="12.1416666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.56666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.8083333333333" customWidth="1"/>
     <col min="5" max="5" width="8.64166666666667" style="1"/>
   </cols>
   <sheetData>
@@ -12977,7 +12977,7 @@
         <v>620</v>
       </c>
       <c r="D592" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E592" s="1">
         <v>1003</v>
@@ -12985,7 +12985,7 @@
     </row>
     <row r="593" spans="1:5">
       <c r="A593" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B593" t="s">
         <v>599</v>
@@ -12994,7 +12994,7 @@
         <v>620</v>
       </c>
       <c r="D593" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E593" s="1">
         <v>1003</v>
@@ -13002,16 +13002,16 @@
     </row>
     <row r="594" spans="1:5">
       <c r="A594" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B594" t="s">
         <v>599</v>
       </c>
       <c r="C594" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D594" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E594" s="1">
         <v>1003</v>
@@ -13019,16 +13019,16 @@
     </row>
     <row r="595" spans="1:5">
       <c r="A595" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B595" t="s">
         <v>599</v>
       </c>
       <c r="C595" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D595" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="E595" s="1">
         <v>1003</v>
@@ -13036,16 +13036,16 @@
     </row>
     <row r="596" spans="1:5">
       <c r="A596" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B596" t="s">
         <v>599</v>
       </c>
       <c r="C596" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D596" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E596" s="1">
         <v>1004</v>

--- a/sortlist.xlsx
+++ b/sortlist.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="646">
   <si>
     <t>title</t>
   </si>
@@ -1882,7 +1882,7 @@
     <t>梅州-1</t>
   </si>
   <si>
-    <t>梅州一套</t>
+    <t>梅州</t>
   </si>
   <si>
     <t>梅州综合</t>
@@ -1894,9 +1894,6 @@
     <t>客家生活</t>
   </si>
   <si>
-    <t>梅州二套</t>
-  </si>
-  <si>
     <t>梅州公共</t>
   </si>
   <si>
@@ -1955,9 +1952,6 @@
   </si>
   <si>
     <t>优漫卡通</t>
-  </si>
-  <si>
-    <t>5.少儿频道</t>
   </si>
   <si>
     <t>優漫卡通[ipv6]</t>
@@ -2905,9 +2899,9 @@
   <dimension ref="A1:E616"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A595" sqref="A595"/>
+      <selection pane="bottomLeft" activeCell="D596" sqref="D596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -12994,7 +12988,7 @@
         <v>620</v>
       </c>
       <c r="D593" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E593" s="1">
         <v>1003</v>
@@ -13028,7 +13022,7 @@
         <v>624</v>
       </c>
       <c r="D595" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E595" s="1">
         <v>1003</v>
@@ -13053,16 +13047,16 @@
     </row>
     <row r="597" spans="1:5">
       <c r="A597" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B597" t="s">
         <v>599</v>
       </c>
       <c r="C597" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D597" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E597" s="1">
         <v>1005</v>
@@ -13070,16 +13064,16 @@
     </row>
     <row r="598" spans="1:5">
       <c r="A598" t="s">
+        <v>626</v>
+      </c>
+      <c r="B598" t="s">
         <v>627</v>
       </c>
-      <c r="B598" t="s">
-        <v>628</v>
-      </c>
       <c r="C598" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D598" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E598" s="1">
         <v>330</v>
@@ -13087,16 +13081,16 @@
     </row>
     <row r="599" spans="1:5">
       <c r="A599" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B599" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C599" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D599" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E599" s="1">
         <v>330</v>
@@ -13104,16 +13098,16 @@
     </row>
     <row r="600" spans="1:5">
       <c r="A600" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B600" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C600" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D600" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E600" s="1">
         <v>330</v>
@@ -13121,16 +13115,16 @@
     </row>
     <row r="601" spans="1:5">
       <c r="A601" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B601" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C601" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D601" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E601" s="1">
         <v>330</v>
@@ -13138,16 +13132,16 @@
     </row>
     <row r="602" spans="1:5">
       <c r="A602" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B602" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C602" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D602" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E602" s="1">
         <v>330</v>
@@ -13155,16 +13149,16 @@
     </row>
     <row r="603" spans="1:5">
       <c r="A603" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B603" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C603" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D603" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E603" s="1">
         <v>330</v>
@@ -13172,16 +13166,16 @@
     </row>
     <row r="604" spans="1:5">
       <c r="A604" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B604" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C604" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D604" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E604" s="1">
         <v>330</v>
@@ -13189,16 +13183,16 @@
     </row>
     <row r="605" spans="1:5">
       <c r="A605" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B605" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C605" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D605" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E605" s="1">
         <v>330</v>
@@ -13206,16 +13200,16 @@
     </row>
     <row r="606" spans="1:5">
       <c r="A606" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B606" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C606" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D606" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E606" s="1">
         <v>330</v>
@@ -13223,16 +13217,16 @@
     </row>
     <row r="607" spans="1:5">
       <c r="A607" t="s">
+        <v>636</v>
+      </c>
+      <c r="B607" t="s">
+        <v>627</v>
+      </c>
+      <c r="C607" t="s">
         <v>637</v>
       </c>
-      <c r="B607" t="s">
-        <v>628</v>
-      </c>
-      <c r="C607" t="s">
-        <v>638</v>
-      </c>
       <c r="D607" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E607" s="1">
         <v>330</v>
@@ -13240,16 +13234,16 @@
     </row>
     <row r="608" spans="1:5">
       <c r="A608" t="s">
+        <v>638</v>
+      </c>
+      <c r="B608" t="s">
+        <v>627</v>
+      </c>
+      <c r="C608" t="s">
         <v>639</v>
       </c>
-      <c r="B608" t="s">
-        <v>628</v>
-      </c>
-      <c r="C608" t="s">
-        <v>640</v>
-      </c>
       <c r="D608" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E608" s="1">
         <v>330</v>
@@ -13257,16 +13251,16 @@
     </row>
     <row r="609" spans="1:5">
       <c r="A609" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B609" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C609" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D609" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E609" s="1">
         <v>330</v>
@@ -13274,16 +13268,16 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B610" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C610" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D610" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E610" s="1">
         <v>330</v>
@@ -13291,16 +13285,16 @@
     </row>
     <row r="611" spans="1:5">
       <c r="A611" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B611" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C611" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D611" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E611" s="1">
         <v>330</v>
@@ -13308,16 +13302,16 @@
     </row>
     <row r="612" spans="1:5">
       <c r="A612" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B612" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C612" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D612" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E612" s="1">
         <v>330</v>
@@ -13325,16 +13319,16 @@
     </row>
     <row r="613" spans="1:5">
       <c r="A613" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B613" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C613" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D613" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E613" s="1">
         <v>330</v>
@@ -13342,16 +13336,16 @@
     </row>
     <row r="614" spans="1:5">
       <c r="A614" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B614" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C614" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D614" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E614" s="1">
         <v>330</v>
@@ -13359,16 +13353,16 @@
     </row>
     <row r="615" spans="1:5">
       <c r="A615" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B615" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="C615" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D615" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E615" s="1">
         <v>330</v>
@@ -13376,16 +13370,16 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B616" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="C616" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D616" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E616" s="1">
         <v>330</v>

--- a/sortlist.xlsx
+++ b/sortlist.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$638</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$647</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="655">
   <si>
     <t>title</t>
   </si>
@@ -1822,6 +1822,12 @@
     <t>广东</t>
   </si>
   <si>
+    <t>廣東體育</t>
+  </si>
+  <si>
+    <t>廣東</t>
+  </si>
+  <si>
     <t>广东体育.720</t>
   </si>
   <si>
@@ -1834,9 +1840,6 @@
     <t>廣東新聞</t>
   </si>
   <si>
-    <t>廣東</t>
-  </si>
-  <si>
     <t>广东民生</t>
   </si>
   <si>
@@ -1858,9 +1861,27 @@
     <t>广州</t>
   </si>
   <si>
+    <t>廣東綜合</t>
+  </si>
+  <si>
     <t>广州综合.720</t>
   </si>
   <si>
+    <t>广州新闻</t>
+  </si>
+  <si>
+    <t>廣州新聞</t>
+  </si>
+  <si>
+    <t>廣州</t>
+  </si>
+  <si>
+    <t>广州法治</t>
+  </si>
+  <si>
+    <t>廣州法治</t>
+  </si>
+  <si>
     <t>深圳电视台都市频道</t>
   </si>
   <si>
@@ -1870,12 +1891,12 @@
     <t>深圳都市</t>
   </si>
   <si>
+    <t>深圳电视剧</t>
+  </si>
+  <si>
     <t>深圳電視劇</t>
   </si>
   <si>
-    <t>深圳电视剧</t>
-  </si>
-  <si>
     <t>梅州一套综合频道</t>
   </si>
   <si>
@@ -1885,6 +1906,9 @@
     <t>梅州</t>
   </si>
   <si>
+    <t>梅州一套综合频道[group_title]</t>
+  </si>
+  <si>
     <t>梅州综合</t>
   </si>
   <si>
@@ -1892,6 +1916,9 @@
   </si>
   <si>
     <t>客家生活</t>
+  </si>
+  <si>
+    <t>梅州二套公共频道[group_title]</t>
   </si>
   <si>
     <t>梅州公共</t>
@@ -1962,10 +1989,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1977,7 +2004,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1991,7 +2071,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2000,7 +2086,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2008,35 +2094,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2051,16 +2109,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2081,42 +2131,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2129,13 +2156,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2147,13 +2228,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,79 +2252,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,6 +2276,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2267,13 +2306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2285,25 +2324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2323,6 +2350,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2334,15 +2405,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2371,32 +2433,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2411,15 +2447,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2428,10 +2455,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2440,133 +2467,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2896,12 +2923,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E616"/>
+  <dimension ref="A1:E625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D596" sqref="D596"/>
+      <selection pane="bottomLeft" activeCell="F604" sqref="F604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -12719,7 +12746,7 @@
         <v>600</v>
       </c>
       <c r="E577" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -12733,61 +12760,61 @@
         <v>598</v>
       </c>
       <c r="D578" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E578" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B579" t="s">
         <v>599</v>
       </c>
       <c r="C579" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D579" t="s">
         <v>600</v>
       </c>
       <c r="E579" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B580" t="s">
         <v>599</v>
       </c>
       <c r="C580" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D580" t="s">
         <v>600</v>
       </c>
       <c r="E580" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="581" spans="1:5">
       <c r="A581" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B581" t="s">
         <v>599</v>
       </c>
       <c r="C581" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D581" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E581" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -12798,13 +12825,13 @@
         <v>599</v>
       </c>
       <c r="C582" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D582" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E582" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -12815,13 +12842,13 @@
         <v>599</v>
       </c>
       <c r="C583" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D583" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E583" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -12832,13 +12859,13 @@
         <v>599</v>
       </c>
       <c r="C584" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D584" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E584" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -12849,13 +12876,13 @@
         <v>599</v>
       </c>
       <c r="C585" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D585" t="s">
         <v>600</v>
       </c>
       <c r="E585" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -12866,13 +12893,13 @@
         <v>599</v>
       </c>
       <c r="C586" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D586" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E586" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -12883,30 +12910,30 @@
         <v>599</v>
       </c>
       <c r="C587" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D587" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E587" s="1">
-        <v>1000</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="588" spans="1:5">
       <c r="A588" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B588" t="s">
         <v>599</v>
       </c>
       <c r="C588" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D588" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E588" s="1">
-        <v>1000</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -12917,81 +12944,81 @@
         <v>599</v>
       </c>
       <c r="C589" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D589" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E589" s="1">
-        <v>1001</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B590" t="s">
         <v>599</v>
       </c>
       <c r="C590" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D590" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E590" s="1">
-        <v>1001</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B591" t="s">
         <v>599</v>
       </c>
       <c r="C591" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D591" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E591" s="1">
-        <v>1002</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="592" spans="1:5">
       <c r="A592" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B592" t="s">
         <v>599</v>
       </c>
       <c r="C592" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D592" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E592" s="1">
-        <v>1003</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="593" spans="1:5">
       <c r="A593" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B593" t="s">
         <v>599</v>
       </c>
       <c r="C593" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D593" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E593" s="1">
-        <v>1003</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -13002,98 +13029,98 @@
         <v>599</v>
       </c>
       <c r="C594" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D594" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E594" s="1">
-        <v>1003</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B595" t="s">
         <v>599</v>
       </c>
       <c r="C595" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D595" t="s">
         <v>621</v>
       </c>
       <c r="E595" s="1">
-        <v>1003</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="596" spans="1:5">
       <c r="A596" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B596" t="s">
         <v>599</v>
       </c>
       <c r="C596" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D596" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E596" s="1">
-        <v>1004</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B597" t="s">
         <v>599</v>
       </c>
       <c r="C597" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D597" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E597" s="1">
-        <v>1005</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B598" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="C598" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D598" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E598" s="1">
-        <v>330</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="599" spans="1:5">
       <c r="A599" t="s">
+        <v>626</v>
+      </c>
+      <c r="B599" t="s">
+        <v>599</v>
+      </c>
+      <c r="C599" t="s">
+        <v>627</v>
+      </c>
+      <c r="D599" t="s">
         <v>628</v>
       </c>
-      <c r="B599" t="s">
-        <v>627</v>
-      </c>
-      <c r="C599" t="s">
-        <v>626</v>
-      </c>
-      <c r="D599" t="s">
-        <v>626</v>
-      </c>
       <c r="E599" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -13101,16 +13128,16 @@
         <v>629</v>
       </c>
       <c r="B600" t="s">
+        <v>599</v>
+      </c>
+      <c r="C600" t="s">
         <v>627</v>
       </c>
-      <c r="C600" t="s">
-        <v>626</v>
-      </c>
       <c r="D600" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E600" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13118,50 +13145,50 @@
         <v>630</v>
       </c>
       <c r="B601" t="s">
+        <v>599</v>
+      </c>
+      <c r="C601" t="s">
         <v>627</v>
       </c>
-      <c r="C601" t="s">
-        <v>630</v>
-      </c>
       <c r="D601" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E601" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B602" t="s">
+        <v>599</v>
+      </c>
+      <c r="C602" t="s">
         <v>627</v>
       </c>
-      <c r="C602" t="s">
-        <v>630</v>
-      </c>
       <c r="D602" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E602" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" t="s">
+        <v>631</v>
+      </c>
+      <c r="B603" t="s">
+        <v>599</v>
+      </c>
+      <c r="C603" t="s">
         <v>632</v>
       </c>
-      <c r="B603" t="s">
-        <v>627</v>
-      </c>
-      <c r="C603" t="s">
-        <v>630</v>
-      </c>
       <c r="D603" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E603" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -13169,64 +13196,64 @@
         <v>633</v>
       </c>
       <c r="B604" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="C604" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D604" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E604" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="605" spans="1:5">
       <c r="A605" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B605" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="C605" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D605" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E605" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="606" spans="1:5">
       <c r="A606" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B606" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="C606" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D606" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E606" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="607" spans="1:5">
       <c r="A607" t="s">
+        <v>635</v>
+      </c>
+      <c r="B607" t="s">
         <v>636</v>
       </c>
-      <c r="B607" t="s">
-        <v>627</v>
-      </c>
       <c r="C607" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D607" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E607" s="1">
         <v>330</v>
@@ -13234,16 +13261,16 @@
     </row>
     <row r="608" spans="1:5">
       <c r="A608" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B608" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C608" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D608" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E608" s="1">
         <v>330</v>
@@ -13251,16 +13278,16 @@
     </row>
     <row r="609" spans="1:5">
       <c r="A609" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B609" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C609" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D609" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E609" s="1">
         <v>330</v>
@@ -13268,16 +13295,16 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B610" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C610" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D610" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E610" s="1">
         <v>330</v>
@@ -13285,16 +13312,16 @@
     </row>
     <row r="611" spans="1:5">
       <c r="A611" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B611" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C611" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D611" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E611" s="1">
         <v>330</v>
@@ -13302,16 +13329,16 @@
     </row>
     <row r="612" spans="1:5">
       <c r="A612" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B612" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C612" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D612" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E612" s="1">
         <v>330</v>
@@ -13319,16 +13346,16 @@
     </row>
     <row r="613" spans="1:5">
       <c r="A613" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B613" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C613" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D613" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="E613" s="1">
         <v>330</v>
@@ -13336,16 +13363,16 @@
     </row>
     <row r="614" spans="1:5">
       <c r="A614" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B614" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C614" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D614" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E614" s="1">
         <v>330</v>
@@ -13356,13 +13383,13 @@
         <v>644</v>
       </c>
       <c r="B615" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C615" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D615" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E615" s="1">
         <v>330</v>
@@ -13373,21 +13400,174 @@
         <v>645</v>
       </c>
       <c r="B616" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C616" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D616" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E616" s="1">
         <v>330</v>
       </c>
     </row>
+    <row r="617" spans="1:5">
+      <c r="A617" t="s">
+        <v>647</v>
+      </c>
+      <c r="B617" t="s">
+        <v>636</v>
+      </c>
+      <c r="C617" t="s">
+        <v>648</v>
+      </c>
+      <c r="D617" t="s">
+        <v>648</v>
+      </c>
+      <c r="E617" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" t="s">
+        <v>649</v>
+      </c>
+      <c r="B618" t="s">
+        <v>636</v>
+      </c>
+      <c r="C618" t="s">
+        <v>648</v>
+      </c>
+      <c r="D618" t="s">
+        <v>648</v>
+      </c>
+      <c r="E618" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" t="s">
+        <v>650</v>
+      </c>
+      <c r="B619" t="s">
+        <v>636</v>
+      </c>
+      <c r="C619" t="s">
+        <v>650</v>
+      </c>
+      <c r="D619" t="s">
+        <v>650</v>
+      </c>
+      <c r="E619" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" t="s">
+        <v>651</v>
+      </c>
+      <c r="B620" t="s">
+        <v>636</v>
+      </c>
+      <c r="C620" t="s">
+        <v>651</v>
+      </c>
+      <c r="D620" t="s">
+        <v>651</v>
+      </c>
+      <c r="E620" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" t="s">
+        <v>646</v>
+      </c>
+      <c r="B621" t="s">
+        <v>636</v>
+      </c>
+      <c r="C621" t="s">
+        <v>646</v>
+      </c>
+      <c r="D621" t="s">
+        <v>646</v>
+      </c>
+      <c r="E621" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" t="s">
+        <v>652</v>
+      </c>
+      <c r="B622" t="s">
+        <v>636</v>
+      </c>
+      <c r="C622" t="s">
+        <v>646</v>
+      </c>
+      <c r="D622" t="s">
+        <v>646</v>
+      </c>
+      <c r="E622" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" t="s">
+        <v>648</v>
+      </c>
+      <c r="B623" t="s">
+        <v>636</v>
+      </c>
+      <c r="C623" t="s">
+        <v>648</v>
+      </c>
+      <c r="D623" t="s">
+        <v>648</v>
+      </c>
+      <c r="E623" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" t="s">
+        <v>653</v>
+      </c>
+      <c r="B624" t="s">
+        <v>636</v>
+      </c>
+      <c r="C624" t="s">
+        <v>653</v>
+      </c>
+      <c r="D624" t="s">
+        <v>653</v>
+      </c>
+      <c r="E624" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" t="s">
+        <v>654</v>
+      </c>
+      <c r="B625" t="s">
+        <v>636</v>
+      </c>
+      <c r="C625" t="s">
+        <v>653</v>
+      </c>
+      <c r="D625" t="s">
+        <v>653</v>
+      </c>
+      <c r="E625" s="1">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E638">
-    <sortState ref="A1:E638">
+  <autoFilter ref="A1:E647">
+    <sortState ref="A1:E647">
       <sortCondition ref="E1:E481"/>
     </sortState>
     <extLst/>
@@ -13409,6 +13589,12 @@
     <hyperlink ref="A200" r:id="rId14" display="CCTV-15@高清" tooltip="mailto:CCTV-15@高清"/>
     <hyperlink ref="A212" r:id="rId15" display="CCTV-16@高清" tooltip="mailto:CCTV-16@高清"/>
     <hyperlink ref="A230" r:id="rId16" display="CCTV-17@高清" tooltip="mailto:CCTV-17@高清"/>
+    <hyperlink ref="E590" r:id="rId17" display="4401" tooltip="https://xingzhengquhua.bmcx.com/440101000000__xingzhengquhua/"/>
+    <hyperlink ref="E591" r:id="rId17" display="4401" tooltip="https://xingzhengquhua.bmcx.com/440101000000__xingzhengquhua/"/>
+    <hyperlink ref="E593" r:id="rId17" display="4401" tooltip="https://xingzhengquhua.bmcx.com/440101000000__xingzhengquhua/"/>
+    <hyperlink ref="E589" r:id="rId17" display="4401" tooltip="https://xingzhengquhua.bmcx.com/440101000000__xingzhengquhua/"/>
+    <hyperlink ref="E592" r:id="rId17" display="4401" tooltip="https://xingzhengquhua.bmcx.com/440101000000__xingzhengquhua/"/>
+    <hyperlink ref="E594" r:id="rId17" display="4401" tooltip="https://xingzhengquhua.bmcx.com/440101000000__xingzhengquhua/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/sortlist.xlsx
+++ b/sortlist.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="654">
   <si>
     <t>title</t>
   </si>
@@ -1883,9 +1883,6 @@
   </si>
   <si>
     <t>深圳电视台都市频道</t>
-  </si>
-  <si>
-    <t>深圳都市频道</t>
   </si>
   <si>
     <t>深圳都市</t>
@@ -1989,8 +1986,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2000,6 +1997,51 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2017,8 +2059,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2026,7 +2069,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2041,7 +2084,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2063,54 +2114,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2123,27 +2137,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2156,13 +2153,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2174,7 +2225,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2186,19 +2261,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2210,121 +2315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,59 +2349,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2434,6 +2381,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2447,6 +2409,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2455,10 +2452,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2467,133 +2464,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2928,7 +2925,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F604" sqref="F604"/>
+      <selection pane="bottomLeft" activeCell="D597" sqref="D597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -13057,7 +13054,7 @@
     </row>
     <row r="596" spans="1:5">
       <c r="A596" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B596" t="s">
         <v>599</v>
@@ -13066,7 +13063,7 @@
         <v>622</v>
       </c>
       <c r="D596" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E596" s="1">
         <v>4403</v>
@@ -13074,16 +13071,16 @@
     </row>
     <row r="597" spans="1:5">
       <c r="A597" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B597" t="s">
         <v>599</v>
       </c>
       <c r="C597" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D597" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E597" s="1">
         <v>4403</v>
@@ -13091,16 +13088,16 @@
     </row>
     <row r="598" spans="1:5">
       <c r="A598" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B598" t="s">
         <v>599</v>
       </c>
       <c r="C598" t="s">
+        <v>623</v>
+      </c>
+      <c r="D598" t="s">
         <v>624</v>
-      </c>
-      <c r="D598" t="s">
-        <v>625</v>
       </c>
       <c r="E598" s="1">
         <v>4403</v>
@@ -13108,16 +13105,16 @@
     </row>
     <row r="599" spans="1:5">
       <c r="A599" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B599" t="s">
         <v>599</v>
       </c>
       <c r="C599" t="s">
+        <v>626</v>
+      </c>
+      <c r="D599" t="s">
         <v>627</v>
-      </c>
-      <c r="D599" t="s">
-        <v>628</v>
       </c>
       <c r="E599" s="1">
         <v>4414</v>
@@ -13125,16 +13122,16 @@
     </row>
     <row r="600" spans="1:5">
       <c r="A600" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B600" t="s">
         <v>599</v>
       </c>
       <c r="C600" t="s">
+        <v>626</v>
+      </c>
+      <c r="D600" t="s">
         <v>627</v>
-      </c>
-      <c r="D600" t="s">
-        <v>628</v>
       </c>
       <c r="E600" s="1">
         <v>4414</v>
@@ -13142,16 +13139,16 @@
     </row>
     <row r="601" spans="1:5">
       <c r="A601" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B601" t="s">
         <v>599</v>
       </c>
       <c r="C601" t="s">
+        <v>626</v>
+      </c>
+      <c r="D601" t="s">
         <v>627</v>
-      </c>
-      <c r="D601" t="s">
-        <v>628</v>
       </c>
       <c r="E601" s="1">
         <v>4414</v>
@@ -13159,16 +13156,16 @@
     </row>
     <row r="602" spans="1:5">
       <c r="A602" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B602" t="s">
         <v>599</v>
       </c>
       <c r="C602" t="s">
+        <v>626</v>
+      </c>
+      <c r="D602" t="s">
         <v>627</v>
-      </c>
-      <c r="D602" t="s">
-        <v>628</v>
       </c>
       <c r="E602" s="1">
         <v>4414</v>
@@ -13176,16 +13173,16 @@
     </row>
     <row r="603" spans="1:5">
       <c r="A603" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B603" t="s">
         <v>599</v>
       </c>
       <c r="C603" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D603" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E603" s="1">
         <v>4414</v>
@@ -13193,16 +13190,16 @@
     </row>
     <row r="604" spans="1:5">
       <c r="A604" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B604" t="s">
         <v>599</v>
       </c>
       <c r="C604" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D604" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E604" s="1">
         <v>4414</v>
@@ -13210,16 +13207,16 @@
     </row>
     <row r="605" spans="1:5">
       <c r="A605" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B605" t="s">
         <v>599</v>
       </c>
       <c r="C605" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D605" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E605" s="1">
         <v>4414</v>
@@ -13227,16 +13224,16 @@
     </row>
     <row r="606" spans="1:5">
       <c r="A606" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B606" t="s">
         <v>599</v>
       </c>
       <c r="C606" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D606" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E606" s="1">
         <v>4414</v>
@@ -13244,16 +13241,16 @@
     </row>
     <row r="607" spans="1:5">
       <c r="A607" t="s">
+        <v>634</v>
+      </c>
+      <c r="B607" t="s">
         <v>635</v>
       </c>
-      <c r="B607" t="s">
-        <v>636</v>
-      </c>
       <c r="C607" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D607" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E607" s="1">
         <v>330</v>
@@ -13261,16 +13258,16 @@
     </row>
     <row r="608" spans="1:5">
       <c r="A608" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B608" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C608" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D608" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E608" s="1">
         <v>330</v>
@@ -13278,16 +13275,16 @@
     </row>
     <row r="609" spans="1:5">
       <c r="A609" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B609" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C609" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D609" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E609" s="1">
         <v>330</v>
@@ -13295,16 +13292,16 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B610" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C610" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D610" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E610" s="1">
         <v>330</v>
@@ -13312,16 +13309,16 @@
     </row>
     <row r="611" spans="1:5">
       <c r="A611" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B611" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C611" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D611" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E611" s="1">
         <v>330</v>
@@ -13329,16 +13326,16 @@
     </row>
     <row r="612" spans="1:5">
       <c r="A612" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B612" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C612" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D612" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E612" s="1">
         <v>330</v>
@@ -13346,16 +13343,16 @@
     </row>
     <row r="613" spans="1:5">
       <c r="A613" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B613" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C613" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D613" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E613" s="1">
         <v>330</v>
@@ -13363,16 +13360,16 @@
     </row>
     <row r="614" spans="1:5">
       <c r="A614" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B614" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C614" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D614" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E614" s="1">
         <v>330</v>
@@ -13380,16 +13377,16 @@
     </row>
     <row r="615" spans="1:5">
       <c r="A615" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B615" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C615" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D615" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E615" s="1">
         <v>330</v>
@@ -13397,16 +13394,16 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" t="s">
+        <v>644</v>
+      </c>
+      <c r="B616" t="s">
+        <v>635</v>
+      </c>
+      <c r="C616" t="s">
         <v>645</v>
       </c>
-      <c r="B616" t="s">
-        <v>636</v>
-      </c>
-      <c r="C616" t="s">
-        <v>646</v>
-      </c>
       <c r="D616" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E616" s="1">
         <v>330</v>
@@ -13414,16 +13411,16 @@
     </row>
     <row r="617" spans="1:5">
       <c r="A617" t="s">
+        <v>646</v>
+      </c>
+      <c r="B617" t="s">
+        <v>635</v>
+      </c>
+      <c r="C617" t="s">
         <v>647</v>
       </c>
-      <c r="B617" t="s">
-        <v>636</v>
-      </c>
-      <c r="C617" t="s">
-        <v>648</v>
-      </c>
       <c r="D617" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E617" s="1">
         <v>330</v>
@@ -13431,16 +13428,16 @@
     </row>
     <row r="618" spans="1:5">
       <c r="A618" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B618" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C618" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D618" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E618" s="1">
         <v>330</v>
@@ -13448,16 +13445,16 @@
     </row>
     <row r="619" spans="1:5">
       <c r="A619" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B619" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C619" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D619" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E619" s="1">
         <v>330</v>
@@ -13465,16 +13462,16 @@
     </row>
     <row r="620" spans="1:5">
       <c r="A620" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B620" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C620" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D620" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E620" s="1">
         <v>330</v>
@@ -13482,16 +13479,16 @@
     </row>
     <row r="621" spans="1:5">
       <c r="A621" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B621" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C621" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D621" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E621" s="1">
         <v>330</v>
@@ -13499,16 +13496,16 @@
     </row>
     <row r="622" spans="1:5">
       <c r="A622" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B622" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C622" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D622" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E622" s="1">
         <v>330</v>
@@ -13516,16 +13513,16 @@
     </row>
     <row r="623" spans="1:5">
       <c r="A623" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B623" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C623" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D623" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E623" s="1">
         <v>330</v>
@@ -13533,16 +13530,16 @@
     </row>
     <row r="624" spans="1:5">
       <c r="A624" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B624" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C624" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D624" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E624" s="1">
         <v>330</v>
@@ -13550,16 +13547,16 @@
     </row>
     <row r="625" spans="1:5">
       <c r="A625" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B625" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C625" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D625" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E625" s="1">
         <v>330</v>

--- a/sortlist.xlsx
+++ b/sortlist.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$647</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$663</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="670">
   <si>
     <t>title</t>
   </si>
@@ -1888,10 +1888,58 @@
     <t>深圳都市</t>
   </si>
   <si>
+    <t>深圳都市频道</t>
+  </si>
+  <si>
     <t>深圳电视剧</t>
   </si>
   <si>
     <t>深圳電視劇</t>
+  </si>
+  <si>
+    <t>深圳电视剧频道</t>
+  </si>
+  <si>
+    <t>深圳东部频道</t>
+  </si>
+  <si>
+    <t>深圳东部</t>
+  </si>
+  <si>
+    <t>深圳東部</t>
+  </si>
+  <si>
+    <t>深圳公共频道</t>
+  </si>
+  <si>
+    <t>深圳公共</t>
+  </si>
+  <si>
+    <t>深圳娱乐频道</t>
+  </si>
+  <si>
+    <t>深圳娱乐</t>
+  </si>
+  <si>
+    <t>深圳娛樂</t>
+  </si>
+  <si>
+    <t>深圳宝安频道</t>
+  </si>
+  <si>
+    <t>深圳宝安</t>
+  </si>
+  <si>
+    <t>深圳寶安</t>
+  </si>
+  <si>
+    <t>深圳龙岗频道</t>
+  </si>
+  <si>
+    <t>深圳龙岗</t>
+  </si>
+  <si>
+    <t>深圳龍崗</t>
   </si>
   <si>
     <t>梅州一套综合频道</t>
@@ -1986,10 +2034,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2000,23 +2048,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2031,6 +2072,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2038,8 +2101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2060,45 +2124,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2106,17 +2131,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2131,7 +2156,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2153,7 +2201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,7 +2213,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2177,37 +2309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,13 +2321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2237,13 +2345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,43 +2357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2303,31 +2375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2347,24 +2395,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2380,6 +2410,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2391,30 +2430,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2444,6 +2459,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2452,10 +2500,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2464,133 +2512,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2920,12 +2968,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E625"/>
+  <dimension ref="A1:E641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D597" sqref="D597"/>
+      <selection pane="bottomLeft" activeCell="F612" sqref="F612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -13054,7 +13102,7 @@
     </row>
     <row r="596" spans="1:5">
       <c r="A596" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B596" t="s">
         <v>599</v>
@@ -13063,7 +13111,7 @@
         <v>622</v>
       </c>
       <c r="D596" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E596" s="1">
         <v>4403</v>
@@ -13071,16 +13119,16 @@
     </row>
     <row r="597" spans="1:5">
       <c r="A597" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B597" t="s">
         <v>599</v>
       </c>
       <c r="C597" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D597" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E597" s="1">
         <v>4403</v>
@@ -13094,7 +13142,7 @@
         <v>599</v>
       </c>
       <c r="C598" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D598" t="s">
         <v>624</v>
@@ -13111,86 +13159,86 @@
         <v>599</v>
       </c>
       <c r="C599" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D599" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E599" s="1">
-        <v>4414</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="600" spans="1:5">
       <c r="A600" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B600" t="s">
         <v>599</v>
       </c>
       <c r="C600" t="s">
+        <v>624</v>
+      </c>
+      <c r="D600" t="s">
         <v>626</v>
       </c>
-      <c r="D600" t="s">
-        <v>627</v>
-      </c>
       <c r="E600" s="1">
-        <v>4414</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B601" t="s">
         <v>599</v>
       </c>
       <c r="C601" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D601" t="s">
         <v>627</v>
       </c>
       <c r="E601" s="1">
-        <v>4414</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B602" t="s">
         <v>599</v>
       </c>
       <c r="C602" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D602" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E602" s="1">
-        <v>4414</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B603" t="s">
         <v>599</v>
       </c>
       <c r="C603" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D603" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E603" s="1">
-        <v>4414</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B604" t="s">
         <v>599</v>
@@ -13199,10 +13247,10 @@
         <v>631</v>
       </c>
       <c r="D604" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E604" s="1">
-        <v>4414</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -13219,12 +13267,12 @@
         <v>631</v>
       </c>
       <c r="E605" s="1">
-        <v>4414</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="606" spans="1:5">
       <c r="A606" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B606" t="s">
         <v>599</v>
@@ -13233,163 +13281,163 @@
         <v>633</v>
       </c>
       <c r="D606" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E606" s="1">
-        <v>4414</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="607" spans="1:5">
       <c r="A607" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B607" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C607" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D607" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E607" s="1">
-        <v>330</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="608" spans="1:5">
       <c r="A608" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B608" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C608" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D608" t="s">
         <v>634</v>
       </c>
       <c r="E608" s="1">
-        <v>330</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="609" spans="1:5">
       <c r="A609" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B609" t="s">
+        <v>599</v>
+      </c>
+      <c r="C609" t="s">
+        <v>636</v>
+      </c>
+      <c r="D609" t="s">
         <v>635</v>
       </c>
-      <c r="C609" t="s">
-        <v>634</v>
-      </c>
-      <c r="D609" t="s">
-        <v>634</v>
-      </c>
       <c r="E609" s="1">
-        <v>330</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="610" spans="1:5">
       <c r="A610" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B610" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C610" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D610" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E610" s="1">
-        <v>330</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="611" spans="1:5">
       <c r="A611" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B611" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C611" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D611" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E611" s="1">
-        <v>330</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B612" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C612" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D612" t="s">
         <v>638</v>
       </c>
       <c r="E612" s="1">
-        <v>330</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="613" spans="1:5">
       <c r="A613" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B613" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C613" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D613" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E613" s="1">
-        <v>330</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="614" spans="1:5">
       <c r="A614" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B614" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C614" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D614" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E614" s="1">
-        <v>330</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" t="s">
+        <v>641</v>
+      </c>
+      <c r="B615" t="s">
+        <v>599</v>
+      </c>
+      <c r="C615" t="s">
+        <v>642</v>
+      </c>
+      <c r="D615" t="s">
         <v>643</v>
       </c>
-      <c r="B615" t="s">
-        <v>635</v>
-      </c>
-      <c r="C615" t="s">
-        <v>641</v>
-      </c>
-      <c r="D615" t="s">
-        <v>641</v>
-      </c>
       <c r="E615" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -13397,132 +13445,132 @@
         <v>644</v>
       </c>
       <c r="B616" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C616" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D616" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E616" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="617" spans="1:5">
       <c r="A617" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B617" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C617" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D617" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E617" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="618" spans="1:5">
       <c r="A618" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B618" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C618" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D618" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E618" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B619" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C619" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D619" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E619" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="620" spans="1:5">
       <c r="A620" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B620" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C620" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D620" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="E620" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="621" spans="1:5">
       <c r="A621" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B621" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C621" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D621" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E621" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="622" spans="1:5">
       <c r="A622" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B622" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C622" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D622" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E622" s="1">
-        <v>330</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B623" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="C623" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D623" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E623" s="1">
         <v>330</v>
@@ -13533,13 +13581,13 @@
         <v>652</v>
       </c>
       <c r="B624" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="C624" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D624" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E624" s="1">
         <v>330</v>
@@ -13550,21 +13598,293 @@
         <v>653</v>
       </c>
       <c r="B625" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="C625" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D625" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E625" s="1">
         <v>330</v>
       </c>
     </row>
+    <row r="626" spans="1:5">
+      <c r="A626" t="s">
+        <v>654</v>
+      </c>
+      <c r="B626" t="s">
+        <v>651</v>
+      </c>
+      <c r="C626" t="s">
+        <v>654</v>
+      </c>
+      <c r="D626" t="s">
+        <v>654</v>
+      </c>
+      <c r="E626" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" t="s">
+        <v>655</v>
+      </c>
+      <c r="B627" t="s">
+        <v>651</v>
+      </c>
+      <c r="C627" t="s">
+        <v>654</v>
+      </c>
+      <c r="D627" t="s">
+        <v>654</v>
+      </c>
+      <c r="E627" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" t="s">
+        <v>656</v>
+      </c>
+      <c r="B628" t="s">
+        <v>651</v>
+      </c>
+      <c r="C628" t="s">
+        <v>654</v>
+      </c>
+      <c r="D628" t="s">
+        <v>654</v>
+      </c>
+      <c r="E628" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" t="s">
+        <v>657</v>
+      </c>
+      <c r="B629" t="s">
+        <v>651</v>
+      </c>
+      <c r="C629" t="s">
+        <v>657</v>
+      </c>
+      <c r="D629" t="s">
+        <v>657</v>
+      </c>
+      <c r="E629" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" t="s">
+        <v>658</v>
+      </c>
+      <c r="B630" t="s">
+        <v>651</v>
+      </c>
+      <c r="C630" t="s">
+        <v>657</v>
+      </c>
+      <c r="D630" t="s">
+        <v>657</v>
+      </c>
+      <c r="E630" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" t="s">
+        <v>659</v>
+      </c>
+      <c r="B631" t="s">
+        <v>651</v>
+      </c>
+      <c r="C631" t="s">
+        <v>657</v>
+      </c>
+      <c r="D631" t="s">
+        <v>657</v>
+      </c>
+      <c r="E631" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" t="s">
+        <v>660</v>
+      </c>
+      <c r="B632" t="s">
+        <v>651</v>
+      </c>
+      <c r="C632" t="s">
+        <v>661</v>
+      </c>
+      <c r="D632" t="s">
+        <v>661</v>
+      </c>
+      <c r="E632" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" t="s">
+        <v>662</v>
+      </c>
+      <c r="B633" t="s">
+        <v>651</v>
+      </c>
+      <c r="C633" t="s">
+        <v>663</v>
+      </c>
+      <c r="D633" t="s">
+        <v>663</v>
+      </c>
+      <c r="E633" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" t="s">
+        <v>664</v>
+      </c>
+      <c r="B634" t="s">
+        <v>651</v>
+      </c>
+      <c r="C634" t="s">
+        <v>663</v>
+      </c>
+      <c r="D634" t="s">
+        <v>663</v>
+      </c>
+      <c r="E634" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" t="s">
+        <v>665</v>
+      </c>
+      <c r="B635" t="s">
+        <v>651</v>
+      </c>
+      <c r="C635" t="s">
+        <v>665</v>
+      </c>
+      <c r="D635" t="s">
+        <v>665</v>
+      </c>
+      <c r="E635" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" t="s">
+        <v>666</v>
+      </c>
+      <c r="B636" t="s">
+        <v>651</v>
+      </c>
+      <c r="C636" t="s">
+        <v>666</v>
+      </c>
+      <c r="D636" t="s">
+        <v>666</v>
+      </c>
+      <c r="E636" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" t="s">
+        <v>661</v>
+      </c>
+      <c r="B637" t="s">
+        <v>651</v>
+      </c>
+      <c r="C637" t="s">
+        <v>661</v>
+      </c>
+      <c r="D637" t="s">
+        <v>661</v>
+      </c>
+      <c r="E637" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" t="s">
+        <v>667</v>
+      </c>
+      <c r="B638" t="s">
+        <v>651</v>
+      </c>
+      <c r="C638" t="s">
+        <v>661</v>
+      </c>
+      <c r="D638" t="s">
+        <v>661</v>
+      </c>
+      <c r="E638" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" t="s">
+        <v>663</v>
+      </c>
+      <c r="B639" t="s">
+        <v>651</v>
+      </c>
+      <c r="C639" t="s">
+        <v>663</v>
+      </c>
+      <c r="D639" t="s">
+        <v>663</v>
+      </c>
+      <c r="E639" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" t="s">
+        <v>668</v>
+      </c>
+      <c r="B640" t="s">
+        <v>651</v>
+      </c>
+      <c r="C640" t="s">
+        <v>668</v>
+      </c>
+      <c r="D640" t="s">
+        <v>668</v>
+      </c>
+      <c r="E640" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" t="s">
+        <v>669</v>
+      </c>
+      <c r="B641" t="s">
+        <v>651</v>
+      </c>
+      <c r="C641" t="s">
+        <v>668</v>
+      </c>
+      <c r="D641" t="s">
+        <v>668</v>
+      </c>
+      <c r="E641" s="1">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E647">
-    <sortState ref="A1:E647">
+  <autoFilter ref="A1:E663">
+    <sortState ref="A1:E663">
       <sortCondition ref="E1:E481"/>
     </sortState>
     <extLst/>
